--- a/study2/presentation_for_paper/study2b_survey_questions.xlsx
+++ b/study2/presentation_for_paper/study2b_survey_questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/study/study2/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{A8985899-513C-4B67-B5AF-C0EDBCD0DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE0BCEE-0833-4BDC-8909-24CD51755EF4}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{A8985899-513C-4B67-B5AF-C0EDBCD0DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9E59D9-799A-43BF-A9A2-281F427D1986}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{51F16932-9485-4EEE-821C-9A3A2B4F1F9B}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,25 +146,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,17 +174,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,17 +199,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -228,22 +246,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7852444A-7320-073F-FF3F-6EC06641345D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532047BA-815B-3BFA-5553-7E4B7AF85507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="101600" y="76200"/>
-          <a:ext cx="10668000" cy="1835150"/>
+          <a:off x="152400" y="88900"/>
+          <a:ext cx="9779000" cy="1606550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -606,132 +624,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240AE28D-4C63-4B7C-B5C0-5D9BD536C8BB}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="71.08203125" customWidth="1"/>
-    <col min="3" max="3" width="31.9140625" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="0.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.9140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:5" ht="4" customHeight="1"/>
+    <row r="3" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="4" spans="2:5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="5" spans="2:5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    <row r="6" spans="2:5">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="7" spans="2:5">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="8" spans="2:5">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="9" spans="2:5">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+    <row r="10" spans="2:5">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="2:5" ht="4.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,10 +766,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
